--- a/İlerleme - Progress.xlsx
+++ b/İlerleme - Progress.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
   <si>
     <t xml:space="preserve"> DOSYALAR (FILES)</t>
   </si>
@@ -187,6 +187,9 @@
   </si>
   <si>
     <t>İLERLEME (%)</t>
+  </si>
+  <si>
+    <t>tamamlandı</t>
   </si>
 </sst>
 </file>
@@ -278,11 +281,11 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -579,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -590,9 +593,10 @@
     <col min="1" max="1" width="36.5703125" style="3" customWidth="1"/>
     <col min="2" max="3" width="28.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -606,7 +610,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -616,12 +620,15 @@
       <c r="C2" s="6">
         <v>210</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="11">
         <f t="shared" ref="D2:D51" si="0">B2/C2</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -631,12 +638,12 @@
       <c r="C3" s="9">
         <v>2260</v>
       </c>
-      <c r="D3" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="D3" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -646,12 +653,12 @@
       <c r="C4" s="9">
         <v>1659</v>
       </c>
-      <c r="D4" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="D4" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -661,12 +668,12 @@
       <c r="C5" s="9">
         <v>752</v>
       </c>
-      <c r="D5" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="D5" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -676,12 +683,15 @@
       <c r="C6" s="9">
         <v>1014</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -691,12 +701,15 @@
       <c r="C7" s="9">
         <v>36</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -706,12 +719,15 @@
       <c r="C8" s="9">
         <v>56</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -721,27 +737,27 @@
       <c r="C9" s="9">
         <v>282</v>
       </c>
-      <c r="D9" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="D9" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="6">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="C10" s="9">
         <v>742</v>
       </c>
-      <c r="D10" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="D10" s="11">
+        <f t="shared" si="0"/>
+        <v>0.33692722371967654</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
@@ -751,12 +767,12 @@
       <c r="C11" s="9">
         <v>1078</v>
       </c>
-      <c r="D11" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="D11" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
@@ -766,27 +782,27 @@
       <c r="C12" s="9">
         <v>3998</v>
       </c>
-      <c r="D12" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="D12" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="6">
-        <v>125</v>
+        <v>170</v>
       </c>
       <c r="C13" s="9">
         <v>3945</v>
       </c>
-      <c r="D13" s="12">
-        <f t="shared" si="0"/>
-        <v>3.1685678073510776E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="D13" s="11">
+        <f t="shared" si="0"/>
+        <v>4.3092522179974654E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
@@ -796,12 +812,12 @@
       <c r="C14" s="9">
         <v>3969</v>
       </c>
-      <c r="D14" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="D14" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
@@ -811,12 +827,12 @@
       <c r="C15" s="9">
         <v>381</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:5">
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
@@ -826,12 +842,12 @@
       <c r="C16" s="9">
         <v>243</v>
       </c>
-      <c r="D16" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="D16" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
@@ -841,12 +857,12 @@
       <c r="C17" s="9">
         <v>334</v>
       </c>
-      <c r="D17" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="D17" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
@@ -856,12 +872,12 @@
       <c r="C18" s="9">
         <v>31</v>
       </c>
-      <c r="D18" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="D18" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
@@ -871,12 +887,15 @@
       <c r="C19" s="9">
         <v>197</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
@@ -886,12 +905,15 @@
       <c r="C20" s="9">
         <v>90</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
@@ -901,12 +923,12 @@
       <c r="C21" s="9">
         <v>8</v>
       </c>
-      <c r="D21" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="D21" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="4" t="s">
         <v>21</v>
       </c>
@@ -916,12 +938,12 @@
       <c r="C22" s="9">
         <v>55</v>
       </c>
-      <c r="D22" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="D22" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
@@ -931,12 +953,12 @@
       <c r="C23" s="9">
         <v>5970</v>
       </c>
-      <c r="D23" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="D23" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="4" t="s">
         <v>23</v>
       </c>
@@ -946,12 +968,12 @@
       <c r="C24" s="9">
         <v>80</v>
       </c>
-      <c r="D24" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="D24" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="4" t="s">
         <v>24</v>
       </c>
@@ -961,12 +983,12 @@
       <c r="C25" s="9">
         <v>137</v>
       </c>
-      <c r="D25" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="D25" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="4" t="s">
         <v>25</v>
       </c>
@@ -976,12 +998,12 @@
       <c r="C26" s="9">
         <v>640</v>
       </c>
-      <c r="D26" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="D26" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="4" t="s">
         <v>26</v>
       </c>
@@ -991,12 +1013,12 @@
       <c r="C27" s="9">
         <v>160</v>
       </c>
-      <c r="D27" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="D27" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="4" t="s">
         <v>27</v>
       </c>
@@ -1006,12 +1028,15 @@
       <c r="C28" s="9">
         <v>105</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="4" t="s">
         <v>28</v>
       </c>
@@ -1021,12 +1046,12 @@
       <c r="C29" s="9">
         <v>5</v>
       </c>
-      <c r="D29" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="D29" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="4" t="s">
         <v>29</v>
       </c>
@@ -1036,12 +1061,12 @@
       <c r="C30" s="9">
         <v>7</v>
       </c>
-      <c r="D30" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="D30" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="4" t="s">
         <v>30</v>
       </c>
@@ -1051,12 +1076,12 @@
       <c r="C31" s="9">
         <v>237</v>
       </c>
-      <c r="D31" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="D31" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="4" t="s">
         <v>31</v>
       </c>
@@ -1066,12 +1091,12 @@
       <c r="C32" s="9">
         <v>397</v>
       </c>
-      <c r="D32" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="D32" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="4" t="s">
         <v>32</v>
       </c>
@@ -1081,12 +1106,12 @@
       <c r="C33" s="9">
         <v>148</v>
       </c>
-      <c r="D33" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="D33" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="4" t="s">
         <v>33</v>
       </c>
@@ -1096,12 +1121,12 @@
       <c r="C34" s="9">
         <v>4080</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="11">
         <f t="shared" si="0"/>
         <v>3.7499999999999999E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:5">
       <c r="A35" s="4" t="s">
         <v>34</v>
       </c>
@@ -1111,12 +1136,12 @@
       <c r="C35" s="9">
         <v>81</v>
       </c>
-      <c r="D35" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="D35" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="4" t="s">
         <v>35</v>
       </c>
@@ -1126,12 +1151,12 @@
       <c r="C36" s="9">
         <v>3014</v>
       </c>
-      <c r="D36" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="D36" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="4" t="s">
         <v>36</v>
       </c>
@@ -1141,12 +1166,12 @@
       <c r="C37" s="9">
         <v>3002</v>
       </c>
-      <c r="D37" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="D37" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="4" t="s">
         <v>37</v>
       </c>
@@ -1156,12 +1181,15 @@
       <c r="C38" s="9">
         <v>92</v>
       </c>
-      <c r="D38" s="12">
+      <c r="D38" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="4" t="s">
         <v>38</v>
       </c>
@@ -1171,12 +1199,12 @@
       <c r="C39" s="9">
         <v>38</v>
       </c>
-      <c r="D39" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="D39" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="4" t="s">
         <v>39</v>
       </c>
@@ -1186,12 +1214,12 @@
       <c r="C40" s="9">
         <v>93</v>
       </c>
-      <c r="D40" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="D40" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="4" t="s">
         <v>40</v>
       </c>
@@ -1201,12 +1229,12 @@
       <c r="C41" s="9">
         <v>527</v>
       </c>
-      <c r="D41" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="D41" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="4" t="s">
         <v>41</v>
       </c>
@@ -1216,12 +1244,12 @@
       <c r="C42" s="9">
         <v>62</v>
       </c>
-      <c r="D42" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="D42" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="4" t="s">
         <v>42</v>
       </c>
@@ -1231,27 +1259,27 @@
       <c r="C43" s="9">
         <v>92</v>
       </c>
-      <c r="D43" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="D43" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B44" s="6">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="C44" s="9">
         <v>253</v>
       </c>
-      <c r="D44" s="12">
-        <f t="shared" si="0"/>
-        <v>0.29644268774703558</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="D44" s="11">
+        <f t="shared" si="0"/>
+        <v>0.39525691699604742</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="4" t="s">
         <v>44</v>
       </c>
@@ -1261,12 +1289,12 @@
       <c r="C45" s="9">
         <v>2</v>
       </c>
-      <c r="D45" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="D45" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="4" t="s">
         <v>45</v>
       </c>
@@ -1276,12 +1304,12 @@
       <c r="C46" s="9">
         <v>7492</v>
       </c>
-      <c r="D46" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="D46" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="4" t="s">
         <v>46</v>
       </c>
@@ -1291,12 +1319,12 @@
       <c r="C47" s="9">
         <v>43</v>
       </c>
-      <c r="D47" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="D47" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="4" t="s">
         <v>47</v>
       </c>
@@ -1306,12 +1334,12 @@
       <c r="C48" s="9">
         <v>186</v>
       </c>
-      <c r="D48" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="D48" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="4" t="s">
         <v>48</v>
       </c>
@@ -1321,12 +1349,12 @@
       <c r="C49" s="9">
         <v>289</v>
       </c>
-      <c r="D49" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="D49" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="4" t="s">
         <v>49</v>
       </c>
@@ -1336,12 +1364,15 @@
       <c r="C50" s="9">
         <v>366</v>
       </c>
-      <c r="D50" s="12">
+      <c r="D50" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="E50" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="4" t="s">
         <v>50</v>
       </c>
@@ -1351,12 +1382,12 @@
       <c r="C51" s="9">
         <v>294</v>
       </c>
-      <c r="D51" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="D51" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="4" t="s">
         <v>51</v>
       </c>
@@ -1366,33 +1397,33 @@
       <c r="C52" s="9">
         <v>471</v>
       </c>
-      <c r="D52" s="12">
+      <c r="D52" s="11">
         <f>B52/C52</f>
         <v>6.369426751592357E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="11" t="s">
+    <row r="53" spans="1:5">
+      <c r="A53" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="7" t="s">
         <v>55</v>
       </c>
       <c r="B54" s="9">
         <f>SUM(B2:B52)</f>
-        <v>2903</v>
+        <v>3223</v>
       </c>
       <c r="C54" s="9">
         <f>SUM(C2:C52)</f>
         <v>49703</v>
       </c>
-      <c r="D54" s="12">
+      <c r="D54" s="11">
         <f>B54/C54</f>
-        <v>5.8406937207009638E-2</v>
+        <v>6.4845180371406158E-2</v>
       </c>
     </row>
   </sheetData>
